--- a/cz项目项目整理/项目日报/(日报)-李晓雨.xlsx
+++ b/cz项目项目整理/项目日报/(日报)-李晓雨.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2940" windowWidth="21840" windowHeight="11655" activeTab="2"/>
+    <workbookView xWindow="3180" yWindow="2940" windowWidth="21840" windowHeight="11655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="考核表" sheetId="1" r:id="rId1"/>
     <sheet name="10.15" sheetId="2" r:id="rId2"/>
     <sheet name="10.16" sheetId="3" r:id="rId3"/>
+    <sheet name="10.17" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="139">
   <si>
     <t>组名:小羊</t>
   </si>
@@ -454,6 +456,109 @@
   </si>
   <si>
     <t>从session中保存数据到浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ajax学习   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册模态框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片详情页面获取数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用模态框插件不熟悉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论动态查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论动态添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐影片动态获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合前端代码</t>
+  </si>
+  <si>
+    <t>影片分类页面动态获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理系统数据动态获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理系统用户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理系统会员信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip页面完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页面完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目协助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付接口研究</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付接口研究不会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a标签同意出现下划线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,6 +803,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,14 +1117,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1138,18 +1246,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="15" t="s">
         <v>16</v>
       </c>
@@ -1952,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1969,14 +2077,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="21"/>
       <c r="F1" s="15" t="s">
         <v>16</v>
@@ -2630,6 +2738,713 @@
       <c r="G52" s="4" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="D7" s="4"/>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="18"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="18"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="F25" s="19"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="F31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="F32" s="19"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="E41" s="4"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
